--- a/output.xlsx
+++ b/output.xlsx
@@ -1,114 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serena/Desktop/cognizant/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9549B7E-4EEF-8240-81A0-873B90DA4AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="2320" windowWidth="18520" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3940" yWindow="3900" windowWidth="16920" windowHeight="10540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>stock_id</t>
-  </si>
-  <si>
-    <t>prev_close</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>CBA.AX</t>
-  </si>
-  <si>
-    <t>98.16</t>
-  </si>
-  <si>
-    <t>97.80</t>
-  </si>
-  <si>
-    <t>NAB.AX</t>
-  </si>
-  <si>
-    <t>28.69</t>
-  </si>
-  <si>
-    <t>WBC.AX</t>
-  </si>
-  <si>
-    <t>21.02</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>ANZ.AX</t>
-  </si>
-  <si>
-    <t>27.61</t>
-  </si>
-  <si>
-    <t>27.49</t>
-  </si>
-  <si>
-    <t>-0.26%</t>
-  </si>
-  <si>
-    <t>-0.21%</t>
-  </si>
-  <si>
-    <t>-0.81%</t>
-  </si>
-  <si>
-    <t>-0.51%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,24 +56,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -443,101 +435,583 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col width="14.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stock_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>prev_close</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CBA.AX</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>98.16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>-0.0026</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NAB.AX</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>-0.0021</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WBC.AX</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>-0.0081</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ANZ.AX</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-0.0051</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CBA.AX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-0.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NAB.AX</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>+0.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>WBC.AX</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>+0.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ANZ.AX</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>+0.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CBA.AX</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-0.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NAB.AX</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>+0.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>WBC.AX</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>+0.67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ANZ.AX</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>+0.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CBA.AX</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-0.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NAB.AX</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-0.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WBC.AX</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>+0.53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ANZ.AX</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>+0.47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CBA.AX</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-0.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NAB.AX</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-0.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>WBC.AX</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>+0.58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ANZ.AX</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>+0.62%</t>
+        </is>
       </c>
     </row>
   </sheetData>
